--- a/Dataset_Anies-CakImin.xlsx
+++ b/Dataset_Anies-CakImin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 8\SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05459A9-64F1-49F8-AE78-39244B25AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A331AF2D-F810-4FB5-8DE2-56F789864698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7588ECAB-2017-43AD-8C5F-A320ED11AE6E}"/>
   </bookViews>
@@ -9276,9 +9276,6 @@
     <t>sentimen</t>
   </si>
   <si>
-    <t>positf</t>
-  </si>
-  <si>
     <t>negatif</t>
   </si>
   <si>
@@ -9286,6 +9283,9 @@
   </si>
   <si>
     <t>Tweet</t>
+  </si>
+  <si>
+    <t>positif</t>
   </si>
 </sst>
 </file>
@@ -9365,9 +9365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9405,7 +9405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9511,7 +9511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9653,7 +9653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9664,7 +9664,7 @@
   <dimension ref="A1:E1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9683,7 +9683,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3082</v>
@@ -9703,7 +9703,7 @@
         <v>2027</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>2028</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9737,7 +9737,7 @@
         <v>2029</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9754,7 +9754,7 @@
         <v>2030</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9771,7 +9771,7 @@
         <v>2031</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9788,7 +9788,7 @@
         <v>2032</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9805,7 +9805,7 @@
         <v>2033</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9822,7 +9822,7 @@
         <v>2034</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>2035</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>2036</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9873,7 +9873,7 @@
         <v>2037</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9890,7 +9890,7 @@
         <v>2038</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9907,7 +9907,7 @@
         <v>2039</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9924,7 +9924,7 @@
         <v>2040</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9941,7 +9941,7 @@
         <v>2041</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9958,7 +9958,7 @@
         <v>2042</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9975,7 +9975,7 @@
         <v>2043</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>2044</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -10009,7 +10009,7 @@
         <v>2045</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -10026,7 +10026,7 @@
         <v>2046</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -10043,7 +10043,7 @@
         <v>2047</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10060,7 +10060,7 @@
         <v>2048</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>2049</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10094,7 +10094,7 @@
         <v>2050</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
         <v>2051</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>2052</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -10145,7 +10145,7 @@
         <v>2053</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10162,7 +10162,7 @@
         <v>2054</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>2055</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10196,7 +10196,7 @@
         <v>2056</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -10213,7 +10213,7 @@
         <v>2057</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -10230,7 +10230,7 @@
         <v>2058</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -10247,7 +10247,7 @@
         <v>2059</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>2060</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -10281,7 +10281,7 @@
         <v>2061</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -10298,7 +10298,7 @@
         <v>2062</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -10315,7 +10315,7 @@
         <v>2063</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -10332,7 +10332,7 @@
         <v>2064</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -10349,7 +10349,7 @@
         <v>2065</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>2066</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>2067</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>2068</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -10417,7 +10417,7 @@
         <v>2069</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10434,7 +10434,7 @@
         <v>2070</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
         <v>2071</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -10468,7 +10468,7 @@
         <v>2072</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -10485,7 +10485,7 @@
         <v>2073</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
         <v>2074</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -10519,7 +10519,7 @@
         <v>2075</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>2076</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>2077</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
         <v>2078</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -10587,7 +10587,7 @@
         <v>2079</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -10604,7 +10604,7 @@
         <v>2080</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -10621,7 +10621,7 @@
         <v>2081</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -10638,7 +10638,7 @@
         <v>2082</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>2083</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>2084</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -10689,7 +10689,7 @@
         <v>2085</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
         <v>2086</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -10723,7 +10723,7 @@
         <v>2087</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -10740,7 +10740,7 @@
         <v>2087</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -10757,7 +10757,7 @@
         <v>2088</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
         <v>2089</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -10791,7 +10791,7 @@
         <v>2090</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10808,7 +10808,7 @@
         <v>2091</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -10825,7 +10825,7 @@
         <v>2092</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -10842,7 +10842,7 @@
         <v>2093</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -10859,7 +10859,7 @@
         <v>2094</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -10876,7 +10876,7 @@
         <v>2095</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
         <v>2096</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
         <v>2097</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -10927,7 +10927,7 @@
         <v>2098</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
         <v>2099</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -10961,7 +10961,7 @@
         <v>2100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
         <v>2101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>2102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -11012,7 +11012,7 @@
         <v>2103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -11029,7 +11029,7 @@
         <v>2104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -11046,7 +11046,7 @@
         <v>2105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
         <v>2106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
         <v>2107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -11097,7 +11097,7 @@
         <v>2108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -11114,7 +11114,7 @@
         <v>2109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -11131,7 +11131,7 @@
         <v>2110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -11148,7 +11148,7 @@
         <v>2111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -11165,7 +11165,7 @@
         <v>2112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -11182,7 +11182,7 @@
         <v>2113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>2114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>2115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -11233,7 +11233,7 @@
         <v>2116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
         <v>2117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
         <v>2118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -11284,7 +11284,7 @@
         <v>2119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,7 @@
         <v>2120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -11318,7 +11318,7 @@
         <v>2121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -11335,7 +11335,7 @@
         <v>2122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -11352,7 +11352,7 @@
         <v>2123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
         <v>2124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -11386,7 +11386,7 @@
         <v>2125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -11403,7 +11403,7 @@
         <v>2126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -11420,7 +11420,7 @@
         <v>2127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>2128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -11454,7 +11454,7 @@
         <v>2129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>2130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
         <v>2131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -11505,7 +11505,7 @@
         <v>2132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -11522,7 +11522,7 @@
         <v>2133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -11539,7 +11539,7 @@
         <v>2134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -11556,7 +11556,7 @@
         <v>2135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -11573,7 +11573,7 @@
         <v>2136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -11590,7 +11590,7 @@
         <v>2137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -11607,7 +11607,7 @@
         <v>2138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -11624,7 +11624,7 @@
         <v>2139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -11641,7 +11641,7 @@
         <v>2140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -11658,7 +11658,7 @@
         <v>2141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
         <v>2142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -11692,7 +11692,7 @@
         <v>2143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -11709,7 +11709,7 @@
         <v>2144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>2145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -11743,7 +11743,7 @@
         <v>2146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -11760,7 +11760,7 @@
         <v>2147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
         <v>2148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -11794,7 +11794,7 @@
         <v>2149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>2150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -11828,7 +11828,7 @@
         <v>2151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -11845,7 +11845,7 @@
         <v>2152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
         <v>2153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
         <v>2154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -11896,7 +11896,7 @@
         <v>2155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -11913,7 +11913,7 @@
         <v>2156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -11930,7 +11930,7 @@
         <v>2157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -11947,7 +11947,7 @@
         <v>2158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -11964,7 +11964,7 @@
         <v>2159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -11981,7 +11981,7 @@
         <v>2160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -11998,7 +11998,7 @@
         <v>2161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -12015,7 +12015,7 @@
         <v>2162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -12032,7 +12032,7 @@
         <v>2163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -12049,7 +12049,7 @@
         <v>2164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -12066,7 +12066,7 @@
         <v>2165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -12083,7 +12083,7 @@
         <v>2166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -12100,7 +12100,7 @@
         <v>2167</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -12117,7 +12117,7 @@
         <v>2168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -12134,7 +12134,7 @@
         <v>2169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -12151,7 +12151,7 @@
         <v>2170</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -12168,7 +12168,7 @@
         <v>2171</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -12185,7 +12185,7 @@
         <v>2172</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -12202,7 +12202,7 @@
         <v>2173</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -12219,7 +12219,7 @@
         <v>2174</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -12236,7 +12236,7 @@
         <v>2175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -12253,7 +12253,7 @@
         <v>2176</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
         <v>2177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -12287,7 +12287,7 @@
         <v>2178</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -12304,7 +12304,7 @@
         <v>2179</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -12321,7 +12321,7 @@
         <v>2180</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
         <v>2181</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -12355,7 +12355,7 @@
         <v>2182</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
         <v>2183</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -12389,7 +12389,7 @@
         <v>2184</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -12406,7 +12406,7 @@
         <v>2185</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -12423,7 +12423,7 @@
         <v>2186</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
         <v>2187</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -12457,7 +12457,7 @@
         <v>2188</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -12474,7 +12474,7 @@
         <v>2189</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -12491,7 +12491,7 @@
         <v>2190</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -12508,7 +12508,7 @@
         <v>2191</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -12525,7 +12525,7 @@
         <v>2192</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -12542,7 +12542,7 @@
         <v>2193</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -12559,7 +12559,7 @@
         <v>2194</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>2195</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>2196</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -12610,7 +12610,7 @@
         <v>2197</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -12627,7 +12627,7 @@
         <v>2198</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,7 +12644,7 @@
         <v>2199</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,7 +12661,7 @@
         <v>2200</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -12678,7 +12678,7 @@
         <v>2201</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>2202</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -12712,7 +12712,7 @@
         <v>2203</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -12729,7 +12729,7 @@
         <v>2204</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -12746,7 +12746,7 @@
         <v>2205</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -12763,7 +12763,7 @@
         <v>2206</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -12780,7 +12780,7 @@
         <v>2207</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -12797,7 +12797,7 @@
         <v>2208</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -12814,7 +12814,7 @@
         <v>2209</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -12831,7 +12831,7 @@
         <v>2210</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -12848,7 +12848,7 @@
         <v>2211</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -12865,7 +12865,7 @@
         <v>2212</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>2213</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>2214</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -12916,7 +12916,7 @@
         <v>2215</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -12933,7 +12933,7 @@
         <v>2216</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -12950,7 +12950,7 @@
         <v>2217</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -12967,7 +12967,7 @@
         <v>2218</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -12984,7 +12984,7 @@
         <v>2219</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
         <v>2220</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -13018,7 +13018,7 @@
         <v>2221</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -13035,7 +13035,7 @@
         <v>2222</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -13052,7 +13052,7 @@
         <v>2223</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -13069,7 +13069,7 @@
         <v>2224</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -13086,7 +13086,7 @@
         <v>2225</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -13103,7 +13103,7 @@
         <v>2226</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>2227</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -13137,7 +13137,7 @@
         <v>2228</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -13154,7 +13154,7 @@
         <v>2229</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -13171,7 +13171,7 @@
         <v>2230</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -13188,7 +13188,7 @@
         <v>2231</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -13205,7 +13205,7 @@
         <v>2232</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -13222,7 +13222,7 @@
         <v>2233</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -13239,7 +13239,7 @@
         <v>2234</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -13256,7 +13256,7 @@
         <v>2235</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -13273,7 +13273,7 @@
         <v>2236</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -13290,7 +13290,7 @@
         <v>2237</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
         <v>2238</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -13324,7 +13324,7 @@
         <v>2239</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -13341,7 +13341,7 @@
         <v>2240</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -13358,7 +13358,7 @@
         <v>2241</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -13375,7 +13375,7 @@
         <v>2242</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
         <v>2243</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <v>2244</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
         <v>2245</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -13443,7 +13443,7 @@
         <v>2246</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -13460,7 +13460,7 @@
         <v>2247</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -13477,7 +13477,7 @@
         <v>2248</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -13494,7 +13494,7 @@
         <v>2249</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>2250</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -13528,7 +13528,7 @@
         <v>2251</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
         <v>2252</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -13562,7 +13562,7 @@
         <v>2253</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -13579,7 +13579,7 @@
         <v>2254</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
         <v>2255</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -13613,7 +13613,7 @@
         <v>2256</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -13630,7 +13630,7 @@
         <v>2257</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -13647,7 +13647,7 @@
         <v>2258</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -13664,7 +13664,7 @@
         <v>2259</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -13681,7 +13681,7 @@
         <v>2260</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -13698,7 +13698,7 @@
         <v>2261</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -13715,7 +13715,7 @@
         <v>2262</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>2263</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -13749,7 +13749,7 @@
         <v>2264</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -13766,7 +13766,7 @@
         <v>2265</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -13783,7 +13783,7 @@
         <v>2266</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -13800,7 +13800,7 @@
         <v>2267</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -13817,7 +13817,7 @@
         <v>2268</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -13834,7 +13834,7 @@
         <v>2269</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -13851,7 +13851,7 @@
         <v>2270</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -13868,7 +13868,7 @@
         <v>2271</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -13885,7 +13885,7 @@
         <v>2272</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -13902,7 +13902,7 @@
         <v>2273</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -13919,7 +13919,7 @@
         <v>2274</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -13936,7 +13936,7 @@
         <v>2275</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -13953,7 +13953,7 @@
         <v>2276</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -13970,7 +13970,7 @@
         <v>2277</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -13987,7 +13987,7 @@
         <v>2278</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -14004,7 +14004,7 @@
         <v>2279</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -14021,7 +14021,7 @@
         <v>2280</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -14038,7 +14038,7 @@
         <v>2281</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -14055,7 +14055,7 @@
         <v>2282</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>2283</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -14089,7 +14089,7 @@
         <v>2284</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -14106,7 +14106,7 @@
         <v>2285</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -14123,7 +14123,7 @@
         <v>2286</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -14140,7 +14140,7 @@
         <v>2287</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -14157,7 +14157,7 @@
         <v>2288</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -14174,7 +14174,7 @@
         <v>2289</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
         <v>2290</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -14208,7 +14208,7 @@
         <v>2291</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
         <v>2292</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -14242,7 +14242,7 @@
         <v>2293</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -14259,7 +14259,7 @@
         <v>2294</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -14276,7 +14276,7 @@
         <v>2295</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -14293,7 +14293,7 @@
         <v>2296</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -14310,7 +14310,7 @@
         <v>2297</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -14327,7 +14327,7 @@
         <v>2298</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -14344,7 +14344,7 @@
         <v>2299</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -14361,7 +14361,7 @@
         <v>2300</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -14378,7 +14378,7 @@
         <v>2301</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -14395,7 +14395,7 @@
         <v>2302</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -14412,7 +14412,7 @@
         <v>2303</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -14429,7 +14429,7 @@
         <v>2304</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -14446,7 +14446,7 @@
         <v>2305</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -14463,7 +14463,7 @@
         <v>2306</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -14480,7 +14480,7 @@
         <v>2307</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>2308</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -14514,7 +14514,7 @@
         <v>2309</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -14531,7 +14531,7 @@
         <v>2310</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -14548,7 +14548,7 @@
         <v>2311</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -14565,7 +14565,7 @@
         <v>2312</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -14582,7 +14582,7 @@
         <v>2313</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -14599,7 +14599,7 @@
         <v>2314</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -14616,7 +14616,7 @@
         <v>2315</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -14633,7 +14633,7 @@
         <v>2316</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -14650,7 +14650,7 @@
         <v>2317</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -14667,7 +14667,7 @@
         <v>2318</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -14684,7 +14684,7 @@
         <v>2319</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -14701,7 +14701,7 @@
         <v>2320</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -14718,7 +14718,7 @@
         <v>2321</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -14735,7 +14735,7 @@
         <v>2322</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>2323</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
         <v>2324</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -14786,7 +14786,7 @@
         <v>2325</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -14803,7 +14803,7 @@
         <v>2326</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -14820,7 +14820,7 @@
         <v>2327</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -14837,7 +14837,7 @@
         <v>2328</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -14854,7 +14854,7 @@
         <v>2329</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -14871,7 +14871,7 @@
         <v>2330</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -14888,7 +14888,7 @@
         <v>2331</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -14905,7 +14905,7 @@
         <v>2332</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -14922,7 +14922,7 @@
         <v>2333</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -14939,7 +14939,7 @@
         <v>2334</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -14956,7 +14956,7 @@
         <v>2335</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -14973,7 +14973,7 @@
         <v>2336</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -14990,7 +14990,7 @@
         <v>2337</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -15007,7 +15007,7 @@
         <v>2338</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -15024,7 +15024,7 @@
         <v>2339</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -15041,7 +15041,7 @@
         <v>2340</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -15058,7 +15058,7 @@
         <v>2341</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -15075,7 +15075,7 @@
         <v>2342</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>2343</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -15109,7 +15109,7 @@
         <v>2344</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -15126,7 +15126,7 @@
         <v>2345</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -15143,7 +15143,7 @@
         <v>2346</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -15160,7 +15160,7 @@
         <v>2347</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -15177,7 +15177,7 @@
         <v>2348</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -15194,7 +15194,7 @@
         <v>2349</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -15211,7 +15211,7 @@
         <v>2329</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -15228,7 +15228,7 @@
         <v>2350</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -15245,7 +15245,7 @@
         <v>2351</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -15262,7 +15262,7 @@
         <v>2352</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -15279,7 +15279,7 @@
         <v>2353</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -15296,7 +15296,7 @@
         <v>2354</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -15313,7 +15313,7 @@
         <v>2355</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -15330,7 +15330,7 @@
         <v>2356</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -15347,7 +15347,7 @@
         <v>2357</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -15364,7 +15364,7 @@
         <v>2358</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
         <v>2342</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -15398,7 +15398,7 @@
         <v>2359</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -15415,7 +15415,7 @@
         <v>2360</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -15432,7 +15432,7 @@
         <v>2361</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -15449,7 +15449,7 @@
         <v>2362</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>2363</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -15483,7 +15483,7 @@
         <v>2364</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -15500,7 +15500,7 @@
         <v>2365</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -15517,7 +15517,7 @@
         <v>2366</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -15534,7 +15534,7 @@
         <v>2367</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -15551,7 +15551,7 @@
         <v>2368</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -15568,7 +15568,7 @@
         <v>2369</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -15585,7 +15585,7 @@
         <v>2370</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -15602,7 +15602,7 @@
         <v>2371</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -15619,7 +15619,7 @@
         <v>2372</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -15636,7 +15636,7 @@
         <v>2373</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -15653,7 +15653,7 @@
         <v>2374</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -15670,7 +15670,7 @@
         <v>2374</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -15687,7 +15687,7 @@
         <v>2375</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -15704,7 +15704,7 @@
         <v>2376</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -15721,7 +15721,7 @@
         <v>2377</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -15738,7 +15738,7 @@
         <v>2378</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -15755,7 +15755,7 @@
         <v>2379</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -15772,7 +15772,7 @@
         <v>2380</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -15789,7 +15789,7 @@
         <v>2381</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
         <v>2382</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -15823,7 +15823,7 @@
         <v>2383</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -15840,7 +15840,7 @@
         <v>2384</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -15857,7 +15857,7 @@
         <v>2385</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -15874,7 +15874,7 @@
         <v>2386</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -15891,7 +15891,7 @@
         <v>2387</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -15908,7 +15908,7 @@
         <v>2388</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -15925,7 +15925,7 @@
         <v>2389</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -15942,7 +15942,7 @@
         <v>2390</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -15959,7 +15959,7 @@
         <v>2391</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -15976,7 +15976,7 @@
         <v>2392</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -15993,7 +15993,7 @@
         <v>2393</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -16010,7 +16010,7 @@
         <v>2394</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -16027,7 +16027,7 @@
         <v>2395</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -16044,7 +16044,7 @@
         <v>2396</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -16061,7 +16061,7 @@
         <v>2397</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -16078,7 +16078,7 @@
         <v>2398</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -16095,7 +16095,7 @@
         <v>2399</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -16112,7 +16112,7 @@
         <v>2400</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -16129,7 +16129,7 @@
         <v>2401</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -16146,7 +16146,7 @@
         <v>2402</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -16163,7 +16163,7 @@
         <v>2403</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -16180,7 +16180,7 @@
         <v>2404</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
         <v>2405</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -16214,7 +16214,7 @@
         <v>2406</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -16231,7 +16231,7 @@
         <v>2407</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -16248,7 +16248,7 @@
         <v>2408</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -16265,7 +16265,7 @@
         <v>2409</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -16282,7 +16282,7 @@
         <v>2410</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -16299,7 +16299,7 @@
         <v>2411</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -16316,7 +16316,7 @@
         <v>2412</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -16333,7 +16333,7 @@
         <v>2413</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -16350,7 +16350,7 @@
         <v>2414</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -16367,7 +16367,7 @@
         <v>2415</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -16384,7 +16384,7 @@
         <v>2416</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -16401,7 +16401,7 @@
         <v>2417</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -16418,7 +16418,7 @@
         <v>2418</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -16435,7 +16435,7 @@
         <v>2419</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
         <v>2420</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -16469,7 +16469,7 @@
         <v>2421</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -16486,7 +16486,7 @@
         <v>2422</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -16503,7 +16503,7 @@
         <v>2423</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -16520,7 +16520,7 @@
         <v>2424</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
         <v>2425</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -16554,7 +16554,7 @@
         <v>2426</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -16571,7 +16571,7 @@
         <v>2427</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
         <v>2428</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
         <v>2429</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -16622,7 +16622,7 @@
         <v>2430</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -16639,7 +16639,7 @@
         <v>2431</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
         <v>2432</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -16673,7 +16673,7 @@
         <v>2433</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -16690,7 +16690,7 @@
         <v>2434</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -16707,7 +16707,7 @@
         <v>2435</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -16724,7 +16724,7 @@
         <v>2436</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -16741,7 +16741,7 @@
         <v>2437</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -16758,7 +16758,7 @@
         <v>2438</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -16775,7 +16775,7 @@
         <v>2439</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -16792,7 +16792,7 @@
         <v>2440</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -16809,7 +16809,7 @@
         <v>2441</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -16826,7 +16826,7 @@
         <v>2442</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -16843,7 +16843,7 @@
         <v>2443</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -16860,7 +16860,7 @@
         <v>2444</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -16877,7 +16877,7 @@
         <v>2445</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -16894,7 +16894,7 @@
         <v>2446</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -16911,7 +16911,7 @@
         <v>2447</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -16928,7 +16928,7 @@
         <v>2448</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -16945,7 +16945,7 @@
         <v>2449</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -16962,7 +16962,7 @@
         <v>2450</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -16979,7 +16979,7 @@
         <v>2451</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -16996,7 +16996,7 @@
         <v>2452</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -17013,7 +17013,7 @@
         <v>2453</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -17030,7 +17030,7 @@
         <v>2454</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>2455</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -17064,7 +17064,7 @@
         <v>2456</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -17081,7 +17081,7 @@
         <v>2457</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -17098,7 +17098,7 @@
         <v>2458</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -17115,7 +17115,7 @@
         <v>2459</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -17132,7 +17132,7 @@
         <v>2460</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -17149,7 +17149,7 @@
         <v>2461</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -17166,7 +17166,7 @@
         <v>2462</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -17183,7 +17183,7 @@
         <v>2463</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -17200,7 +17200,7 @@
         <v>2464</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -17217,7 +17217,7 @@
         <v>2465</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -17234,7 +17234,7 @@
         <v>2466</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -17251,7 +17251,7 @@
         <v>2467</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -17268,7 +17268,7 @@
         <v>2468</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -17285,7 +17285,7 @@
         <v>2469</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -17302,7 +17302,7 @@
         <v>2470</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -17319,7 +17319,7 @@
         <v>2471</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -17336,7 +17336,7 @@
         <v>2472</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -17353,7 +17353,7 @@
         <v>2473</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -17370,7 +17370,7 @@
         <v>2474</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -17387,7 +17387,7 @@
         <v>2475</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
         <v>2476</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -17421,7 +17421,7 @@
         <v>2477</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -17438,7 +17438,7 @@
         <v>2478</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -17455,7 +17455,7 @@
         <v>2479</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -17472,7 +17472,7 @@
         <v>2480</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -17489,7 +17489,7 @@
         <v>2481</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -17506,7 +17506,7 @@
         <v>2482</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -17523,7 +17523,7 @@
         <v>2483</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -17540,7 +17540,7 @@
         <v>2484</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -17557,7 +17557,7 @@
         <v>2485</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -17574,7 +17574,7 @@
         <v>2486</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -17591,7 +17591,7 @@
         <v>2487</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -17608,7 +17608,7 @@
         <v>2488</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -17625,7 +17625,7 @@
         <v>2489</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -17642,7 +17642,7 @@
         <v>2490</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -17659,7 +17659,7 @@
         <v>2491</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -17676,7 +17676,7 @@
         <v>2492</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -17693,7 +17693,7 @@
         <v>2493</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -17710,7 +17710,7 @@
         <v>2494</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -17727,7 +17727,7 @@
         <v>2495</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -17744,7 +17744,7 @@
         <v>2496</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -17761,7 +17761,7 @@
         <v>2497</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
         <v>2498</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -17795,7 +17795,7 @@
         <v>2499</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>2500</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -17829,7 +17829,7 @@
         <v>2501</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -17846,7 +17846,7 @@
         <v>2361</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -17863,7 +17863,7 @@
         <v>2502</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -17880,7 +17880,7 @@
         <v>2503</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>2504</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -17914,7 +17914,7 @@
         <v>2505</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -17931,7 +17931,7 @@
         <v>2506</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -17948,7 +17948,7 @@
         <v>2507</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -17965,7 +17965,7 @@
         <v>2508</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -17982,7 +17982,7 @@
         <v>2509</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -17999,7 +17999,7 @@
         <v>2510</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -18016,7 +18016,7 @@
         <v>2511</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -18033,7 +18033,7 @@
         <v>2512</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -18050,7 +18050,7 @@
         <v>2513</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -18067,7 +18067,7 @@
         <v>2514</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -18084,7 +18084,7 @@
         <v>2515</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -18101,7 +18101,7 @@
         <v>2516</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -18118,7 +18118,7 @@
         <v>2517</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -18135,7 +18135,7 @@
         <v>2518</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -18152,7 +18152,7 @@
         <v>2519</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -18169,7 +18169,7 @@
         <v>2520</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -18186,7 +18186,7 @@
         <v>2521</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -18203,7 +18203,7 @@
         <v>2522</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -18220,7 +18220,7 @@
         <v>2523</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -18237,7 +18237,7 @@
         <v>2524</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -18254,7 +18254,7 @@
         <v>2525</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -18271,7 +18271,7 @@
         <v>2526</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -18288,7 +18288,7 @@
         <v>2342</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -18305,7 +18305,7 @@
         <v>2527</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -18322,7 +18322,7 @@
         <v>2528</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -18339,7 +18339,7 @@
         <v>2529</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -18356,7 +18356,7 @@
         <v>2530</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -18373,7 +18373,7 @@
         <v>2531</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -18390,7 +18390,7 @@
         <v>2532</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -18407,7 +18407,7 @@
         <v>2533</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -18424,7 +18424,7 @@
         <v>2534</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -18441,7 +18441,7 @@
         <v>2535</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -18458,7 +18458,7 @@
         <v>2536</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -18475,7 +18475,7 @@
         <v>2537</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -18492,7 +18492,7 @@
         <v>2538</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -18509,7 +18509,7 @@
         <v>2539</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -18526,7 +18526,7 @@
         <v>2540</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -18543,7 +18543,7 @@
         <v>2541</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -18560,7 +18560,7 @@
         <v>2542</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -18577,7 +18577,7 @@
         <v>2543</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -18594,7 +18594,7 @@
         <v>2544</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -18611,7 +18611,7 @@
         <v>2545</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -18628,7 +18628,7 @@
         <v>2546</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -18645,7 +18645,7 @@
         <v>2547</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -18662,7 +18662,7 @@
         <v>2548</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -18679,7 +18679,7 @@
         <v>2549</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -18696,7 +18696,7 @@
         <v>2550</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -18713,7 +18713,7 @@
         <v>2551</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -18730,7 +18730,7 @@
         <v>2552</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -18747,7 +18747,7 @@
         <v>2553</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -18764,7 +18764,7 @@
         <v>2554</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -18781,7 +18781,7 @@
         <v>2555</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -18798,7 +18798,7 @@
         <v>2556</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -18815,7 +18815,7 @@
         <v>2557</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -18832,7 +18832,7 @@
         <v>2558</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -18849,7 +18849,7 @@
         <v>2559</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -18866,7 +18866,7 @@
         <v>2560</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -18883,7 +18883,7 @@
         <v>2561</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -18900,7 +18900,7 @@
         <v>2562</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -18917,7 +18917,7 @@
         <v>2563</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -18934,7 +18934,7 @@
         <v>2564</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -18951,7 +18951,7 @@
         <v>2565</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -18968,7 +18968,7 @@
         <v>2566</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -18985,7 +18985,7 @@
         <v>2567</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -19002,7 +19002,7 @@
         <v>2568</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -19019,7 +19019,7 @@
         <v>2569</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -19036,7 +19036,7 @@
         <v>2570</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -19053,7 +19053,7 @@
         <v>2571</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -19070,7 +19070,7 @@
         <v>2572</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -19087,7 +19087,7 @@
         <v>2573</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -19104,7 +19104,7 @@
         <v>2574</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -19121,7 +19121,7 @@
         <v>2575</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -19138,7 +19138,7 @@
         <v>2576</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -19155,7 +19155,7 @@
         <v>2577</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -19172,7 +19172,7 @@
         <v>2578</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -19189,7 +19189,7 @@
         <v>2579</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -19206,7 +19206,7 @@
         <v>2580</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -19223,7 +19223,7 @@
         <v>2581</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -19240,7 +19240,7 @@
         <v>2582</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -19257,7 +19257,7 @@
         <v>2583</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -19274,7 +19274,7 @@
         <v>2584</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -19291,7 +19291,7 @@
         <v>2585</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -19308,7 +19308,7 @@
         <v>2586</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -19325,7 +19325,7 @@
         <v>2587</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -19342,7 +19342,7 @@
         <v>2588</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -19359,7 +19359,7 @@
         <v>2589</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -19376,7 +19376,7 @@
         <v>2590</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -19393,7 +19393,7 @@
         <v>2591</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -19410,7 +19410,7 @@
         <v>2592</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -19427,7 +19427,7 @@
         <v>2593</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -19444,7 +19444,7 @@
         <v>2594</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -19461,7 +19461,7 @@
         <v>2595</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -19478,7 +19478,7 @@
         <v>2596</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -19495,7 +19495,7 @@
         <v>2597</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -19512,7 +19512,7 @@
         <v>2598</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -19529,7 +19529,7 @@
         <v>2599</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -19546,7 +19546,7 @@
         <v>2600</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -19563,7 +19563,7 @@
         <v>2601</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -19580,7 +19580,7 @@
         <v>2602</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -19597,7 +19597,7 @@
         <v>2603</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -19614,7 +19614,7 @@
         <v>2604</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -19631,7 +19631,7 @@
         <v>2605</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -19648,7 +19648,7 @@
         <v>2606</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -19665,7 +19665,7 @@
         <v>2607</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -19682,7 +19682,7 @@
         <v>2608</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -19699,7 +19699,7 @@
         <v>2609</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -19716,7 +19716,7 @@
         <v>2610</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -19733,7 +19733,7 @@
         <v>2611</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -19750,7 +19750,7 @@
         <v>2612</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -19767,7 +19767,7 @@
         <v>2613</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -19784,7 +19784,7 @@
         <v>2614</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -19801,7 +19801,7 @@
         <v>2615</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -19818,7 +19818,7 @@
         <v>2616</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -19835,7 +19835,7 @@
         <v>2617</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -19852,7 +19852,7 @@
         <v>2618</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -19869,7 +19869,7 @@
         <v>2619</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -19886,7 +19886,7 @@
         <v>2620</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -19903,7 +19903,7 @@
         <v>2621</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -19920,7 +19920,7 @@
         <v>2622</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -19937,7 +19937,7 @@
         <v>2623</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -19954,7 +19954,7 @@
         <v>2624</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -19971,7 +19971,7 @@
         <v>2625</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -19988,7 +19988,7 @@
         <v>2626</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -20005,7 +20005,7 @@
         <v>2627</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -20022,7 +20022,7 @@
         <v>2628</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -20039,7 +20039,7 @@
         <v>2514</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -20056,7 +20056,7 @@
         <v>2629</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -20073,7 +20073,7 @@
         <v>2630</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -20090,7 +20090,7 @@
         <v>2631</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -20107,7 +20107,7 @@
         <v>2632</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -20124,7 +20124,7 @@
         <v>2633</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -20141,7 +20141,7 @@
         <v>2634</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -20158,7 +20158,7 @@
         <v>2635</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -20175,7 +20175,7 @@
         <v>2636</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -20192,7 +20192,7 @@
         <v>2637</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -20209,7 +20209,7 @@
         <v>2638</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -20226,7 +20226,7 @@
         <v>2639</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -20243,7 +20243,7 @@
         <v>2640</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -20260,7 +20260,7 @@
         <v>2641</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -20277,7 +20277,7 @@
         <v>2642</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -20294,7 +20294,7 @@
         <v>2643</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -20311,7 +20311,7 @@
         <v>2644</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -20328,7 +20328,7 @@
         <v>2645</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -20345,7 +20345,7 @@
         <v>2646</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -20362,7 +20362,7 @@
         <v>2647</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -20379,7 +20379,7 @@
         <v>2648</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -20396,7 +20396,7 @@
         <v>2639</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -20413,7 +20413,7 @@
         <v>2649</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -20430,7 +20430,7 @@
         <v>2650</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -20447,7 +20447,7 @@
         <v>2651</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -20464,7 +20464,7 @@
         <v>2652</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -20481,7 +20481,7 @@
         <v>2653</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -20498,7 +20498,7 @@
         <v>2654</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -20515,7 +20515,7 @@
         <v>2655</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -20532,7 +20532,7 @@
         <v>2656</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -20549,7 +20549,7 @@
         <v>2657</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -20566,7 +20566,7 @@
         <v>2658</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -20583,7 +20583,7 @@
         <v>2659</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -20600,7 +20600,7 @@
         <v>2660</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -20617,7 +20617,7 @@
         <v>2661</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -20634,7 +20634,7 @@
         <v>2662</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -20651,7 +20651,7 @@
         <v>2663</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -20668,7 +20668,7 @@
         <v>2664</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -20685,7 +20685,7 @@
         <v>2665</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -20702,7 +20702,7 @@
         <v>2666</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -20719,7 +20719,7 @@
         <v>2667</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -20736,7 +20736,7 @@
         <v>2668</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -20753,7 +20753,7 @@
         <v>2669</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -20770,7 +20770,7 @@
         <v>2670</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -20787,7 +20787,7 @@
         <v>2671</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -20804,7 +20804,7 @@
         <v>2672</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -20821,7 +20821,7 @@
         <v>2673</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -20838,7 +20838,7 @@
         <v>2674</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -20855,7 +20855,7 @@
         <v>2675</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -20872,7 +20872,7 @@
         <v>2676</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -20889,7 +20889,7 @@
         <v>2677</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -20906,7 +20906,7 @@
         <v>2678</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -20923,7 +20923,7 @@
         <v>2679</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -20940,7 +20940,7 @@
         <v>2680</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -20957,7 +20957,7 @@
         <v>2681</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -20974,7 +20974,7 @@
         <v>2682</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -20991,7 +20991,7 @@
         <v>2683</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -21008,7 +21008,7 @@
         <v>2684</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -21025,7 +21025,7 @@
         <v>2685</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -21042,7 +21042,7 @@
         <v>2686</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -21059,7 +21059,7 @@
         <v>2687</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -21076,7 +21076,7 @@
         <v>2688</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -21093,7 +21093,7 @@
         <v>2689</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -21110,7 +21110,7 @@
         <v>2690</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -21127,7 +21127,7 @@
         <v>2691</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -21144,7 +21144,7 @@
         <v>2692</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -21161,7 +21161,7 @@
         <v>2693</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -21178,7 +21178,7 @@
         <v>2694</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -21195,7 +21195,7 @@
         <v>2695</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
         <v>2696</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -21229,7 +21229,7 @@
         <v>2697</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -21246,7 +21246,7 @@
         <v>2698</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -21263,7 +21263,7 @@
         <v>2699</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -21280,7 +21280,7 @@
         <v>2700</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -21297,7 +21297,7 @@
         <v>2701</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -21314,7 +21314,7 @@
         <v>2702</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -21331,7 +21331,7 @@
         <v>2703</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -21348,7 +21348,7 @@
         <v>2704</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -21365,7 +21365,7 @@
         <v>2639</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -21382,7 +21382,7 @@
         <v>2705</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
@@ -21399,7 +21399,7 @@
         <v>2706</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
@@ -21416,7 +21416,7 @@
         <v>2707</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -21433,7 +21433,7 @@
         <v>2708</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -21450,7 +21450,7 @@
         <v>2709</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -21467,7 +21467,7 @@
         <v>2710</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -21484,7 +21484,7 @@
         <v>2639</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -21501,7 +21501,7 @@
         <v>2711</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -21518,7 +21518,7 @@
         <v>2712</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -21535,7 +21535,7 @@
         <v>2713</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -21552,7 +21552,7 @@
         <v>2714</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -21569,7 +21569,7 @@
         <v>2715</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -21586,7 +21586,7 @@
         <v>2716</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
@@ -21603,7 +21603,7 @@
         <v>2717</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -21620,7 +21620,7 @@
         <v>2718</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
@@ -21637,7 +21637,7 @@
         <v>2719</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
@@ -21654,7 +21654,7 @@
         <v>2720</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
@@ -21671,7 +21671,7 @@
         <v>2721</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -21688,7 +21688,7 @@
         <v>2722</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -21705,7 +21705,7 @@
         <v>2723</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -21722,7 +21722,7 @@
         <v>2724</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -21739,7 +21739,7 @@
         <v>2725</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
@@ -21756,7 +21756,7 @@
         <v>2726</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -21773,7 +21773,7 @@
         <v>2727</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
@@ -21790,7 +21790,7 @@
         <v>2728</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -21807,7 +21807,7 @@
         <v>2729</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
@@ -21824,7 +21824,7 @@
         <v>2730</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
@@ -21841,7 +21841,7 @@
         <v>2731</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
@@ -21858,7 +21858,7 @@
         <v>2732</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -21875,7 +21875,7 @@
         <v>2733</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -21892,7 +21892,7 @@
         <v>2734</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -21909,7 +21909,7 @@
         <v>2735</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -21926,7 +21926,7 @@
         <v>2736</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -21943,7 +21943,7 @@
         <v>2737</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -21960,7 +21960,7 @@
         <v>2738</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -21977,7 +21977,7 @@
         <v>2739</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -21994,7 +21994,7 @@
         <v>2740</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -22011,7 +22011,7 @@
         <v>2741</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -22028,7 +22028,7 @@
         <v>2742</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -22045,7 +22045,7 @@
         <v>2743</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -22062,7 +22062,7 @@
         <v>2744</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -22079,7 +22079,7 @@
         <v>2745</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -22096,7 +22096,7 @@
         <v>2746</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
@@ -22113,7 +22113,7 @@
         <v>2747</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
@@ -22130,7 +22130,7 @@
         <v>2748</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
@@ -22147,7 +22147,7 @@
         <v>2749</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -22164,7 +22164,7 @@
         <v>2342</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
@@ -22181,7 +22181,7 @@
         <v>2750</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
@@ -22198,7 +22198,7 @@
         <v>2751</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -22215,7 +22215,7 @@
         <v>2752</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -22232,7 +22232,7 @@
         <v>2753</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -22249,7 +22249,7 @@
         <v>2754</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -22266,7 +22266,7 @@
         <v>2755</v>
       </c>
       <c r="E741" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -22283,7 +22283,7 @@
         <v>2756</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -22300,7 +22300,7 @@
         <v>2757</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -22317,7 +22317,7 @@
         <v>2720</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -22334,7 +22334,7 @@
         <v>2758</v>
       </c>
       <c r="E745" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
@@ -22351,7 +22351,7 @@
         <v>2759</v>
       </c>
       <c r="E746" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
@@ -22368,7 +22368,7 @@
         <v>2760</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -22385,7 +22385,7 @@
         <v>2761</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -22402,7 +22402,7 @@
         <v>2736</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
@@ -22419,7 +22419,7 @@
         <v>2762</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -22436,7 +22436,7 @@
         <v>2763</v>
       </c>
       <c r="E751" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -22453,7 +22453,7 @@
         <v>2764</v>
       </c>
       <c r="E752" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -22470,7 +22470,7 @@
         <v>2765</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -22487,7 +22487,7 @@
         <v>2766</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -22504,7 +22504,7 @@
         <v>2767</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
@@ -22521,7 +22521,7 @@
         <v>2768</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
@@ -22538,7 +22538,7 @@
         <v>2769</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
@@ -22555,7 +22555,7 @@
         <v>2770</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
@@ -22572,7 +22572,7 @@
         <v>2771</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -22589,7 +22589,7 @@
         <v>2772</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
@@ -22606,7 +22606,7 @@
         <v>2773</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -22623,7 +22623,7 @@
         <v>2774</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
@@ -22640,7 +22640,7 @@
         <v>2775</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
@@ -22657,7 +22657,7 @@
         <v>2776</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
@@ -22674,7 +22674,7 @@
         <v>2777</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
@@ -22691,7 +22691,7 @@
         <v>2778</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -22708,7 +22708,7 @@
         <v>2779</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -22725,7 +22725,7 @@
         <v>2780</v>
       </c>
       <c r="E768" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -22742,7 +22742,7 @@
         <v>2781</v>
       </c>
       <c r="E769" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
@@ -22759,7 +22759,7 @@
         <v>2782</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
@@ -22776,7 +22776,7 @@
         <v>2783</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -22793,7 +22793,7 @@
         <v>2784</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -22810,7 +22810,7 @@
         <v>2785</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -22827,7 +22827,7 @@
         <v>2786</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
@@ -22844,7 +22844,7 @@
         <v>2787</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
@@ -22861,7 +22861,7 @@
         <v>2788</v>
       </c>
       <c r="E776" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
@@ -22878,7 +22878,7 @@
         <v>2789</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
@@ -22895,7 +22895,7 @@
         <v>2790</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
@@ -22912,7 +22912,7 @@
         <v>2791</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
@@ -22929,7 +22929,7 @@
         <v>2792</v>
       </c>
       <c r="E780" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
@@ -22946,7 +22946,7 @@
         <v>2793</v>
       </c>
       <c r="E781" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -22963,7 +22963,7 @@
         <v>2794</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -22980,7 +22980,7 @@
         <v>2795</v>
       </c>
       <c r="E783" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -22997,7 +22997,7 @@
         <v>2796</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
@@ -23014,7 +23014,7 @@
         <v>2797</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
@@ -23031,7 +23031,7 @@
         <v>2798</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
@@ -23048,7 +23048,7 @@
         <v>2799</v>
       </c>
       <c r="E787" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
@@ -23065,7 +23065,7 @@
         <v>2800</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -23082,7 +23082,7 @@
         <v>2801</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
@@ -23099,7 +23099,7 @@
         <v>2802</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -23116,7 +23116,7 @@
         <v>2803</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
@@ -23133,7 +23133,7 @@
         <v>2804</v>
       </c>
       <c r="E792" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -23150,7 +23150,7 @@
         <v>2805</v>
       </c>
       <c r="E793" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -23167,7 +23167,7 @@
         <v>2806</v>
       </c>
       <c r="E794" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -23184,7 +23184,7 @@
         <v>2807</v>
       </c>
       <c r="E795" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
@@ -23201,7 +23201,7 @@
         <v>2808</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -23218,7 +23218,7 @@
         <v>2809</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -23235,7 +23235,7 @@
         <v>2810</v>
       </c>
       <c r="E798" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
@@ -23252,7 +23252,7 @@
         <v>2811</v>
       </c>
       <c r="E799" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
@@ -23269,7 +23269,7 @@
         <v>2812</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
@@ -23286,7 +23286,7 @@
         <v>2813</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
@@ -23303,7 +23303,7 @@
         <v>2814</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
@@ -23320,7 +23320,7 @@
         <v>2815</v>
       </c>
       <c r="E803" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
@@ -23337,7 +23337,7 @@
         <v>2816</v>
       </c>
       <c r="E804" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
@@ -23354,7 +23354,7 @@
         <v>2817</v>
       </c>
       <c r="E805" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
@@ -23371,7 +23371,7 @@
         <v>2818</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
@@ -23388,7 +23388,7 @@
         <v>2819</v>
       </c>
       <c r="E807" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
@@ -23405,7 +23405,7 @@
         <v>2820</v>
       </c>
       <c r="E808" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
@@ -23422,7 +23422,7 @@
         <v>2815</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
@@ -23439,7 +23439,7 @@
         <v>2821</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
@@ -23456,7 +23456,7 @@
         <v>2822</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
@@ -23473,7 +23473,7 @@
         <v>2823</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
@@ -23490,7 +23490,7 @@
         <v>2824</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
@@ -23507,7 +23507,7 @@
         <v>2825</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
@@ -23524,7 +23524,7 @@
         <v>2826</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
@@ -23541,7 +23541,7 @@
         <v>2827</v>
       </c>
       <c r="E816" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
@@ -23558,7 +23558,7 @@
         <v>2828</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
@@ -23575,7 +23575,7 @@
         <v>2820</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
@@ -23592,7 +23592,7 @@
         <v>2829</v>
       </c>
       <c r="E819" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
@@ -23609,7 +23609,7 @@
         <v>2830</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
@@ -23626,7 +23626,7 @@
         <v>2831</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
@@ -23643,7 +23643,7 @@
         <v>2832</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
@@ -23660,7 +23660,7 @@
         <v>2833</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
@@ -23677,7 +23677,7 @@
         <v>2834</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
@@ -23694,7 +23694,7 @@
         <v>2835</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
@@ -23711,7 +23711,7 @@
         <v>2836</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
@@ -23728,7 +23728,7 @@
         <v>2837</v>
       </c>
       <c r="E827" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
@@ -23745,7 +23745,7 @@
         <v>2838</v>
       </c>
       <c r="E828" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
@@ -23762,7 +23762,7 @@
         <v>2839</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
@@ -23779,7 +23779,7 @@
         <v>2840</v>
       </c>
       <c r="E830" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
@@ -23796,7 +23796,7 @@
         <v>2841</v>
       </c>
       <c r="E831" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
@@ -23813,7 +23813,7 @@
         <v>2842</v>
       </c>
       <c r="E832" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
@@ -23830,7 +23830,7 @@
         <v>2843</v>
       </c>
       <c r="E833" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
@@ -23847,7 +23847,7 @@
         <v>2844</v>
       </c>
       <c r="E834" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
@@ -23864,7 +23864,7 @@
         <v>2845</v>
       </c>
       <c r="E835" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
@@ -23881,7 +23881,7 @@
         <v>2846</v>
       </c>
       <c r="E836" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
@@ -23898,7 +23898,7 @@
         <v>2847</v>
       </c>
       <c r="E837" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
@@ -23915,7 +23915,7 @@
         <v>2848</v>
       </c>
       <c r="E838" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
@@ -23932,7 +23932,7 @@
         <v>2849</v>
       </c>
       <c r="E839" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
@@ -23949,7 +23949,7 @@
         <v>2850</v>
       </c>
       <c r="E840" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
@@ -23966,7 +23966,7 @@
         <v>2851</v>
       </c>
       <c r="E841" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
@@ -23983,7 +23983,7 @@
         <v>2852</v>
       </c>
       <c r="E842" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
@@ -24000,7 +24000,7 @@
         <v>2853</v>
       </c>
       <c r="E843" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
@@ -24017,7 +24017,7 @@
         <v>2854</v>
       </c>
       <c r="E844" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
@@ -24034,7 +24034,7 @@
         <v>2855</v>
       </c>
       <c r="E845" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
@@ -24051,7 +24051,7 @@
         <v>2856</v>
       </c>
       <c r="E846" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
@@ -24068,7 +24068,7 @@
         <v>2857</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
@@ -24085,7 +24085,7 @@
         <v>2858</v>
       </c>
       <c r="E848" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
@@ -24102,7 +24102,7 @@
         <v>2859</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
@@ -24119,7 +24119,7 @@
         <v>2860</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
@@ -24136,7 +24136,7 @@
         <v>2861</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
@@ -24153,7 +24153,7 @@
         <v>2862</v>
       </c>
       <c r="E852" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
@@ -24170,7 +24170,7 @@
         <v>2863</v>
       </c>
       <c r="E853" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
@@ -24187,7 +24187,7 @@
         <v>2864</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
@@ -24204,7 +24204,7 @@
         <v>2865</v>
       </c>
       <c r="E855" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
@@ -24221,7 +24221,7 @@
         <v>2866</v>
       </c>
       <c r="E856" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
@@ -24238,7 +24238,7 @@
         <v>2867</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
@@ -24255,7 +24255,7 @@
         <v>2868</v>
       </c>
       <c r="E858" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
@@ -24272,7 +24272,7 @@
         <v>2869</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
@@ -24289,7 +24289,7 @@
         <v>2870</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
@@ -24306,7 +24306,7 @@
         <v>2871</v>
       </c>
       <c r="E861" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
@@ -24323,7 +24323,7 @@
         <v>2872</v>
       </c>
       <c r="E862" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
@@ -24340,7 +24340,7 @@
         <v>2873</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
@@ -24357,7 +24357,7 @@
         <v>2874</v>
       </c>
       <c r="E864" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
@@ -24374,7 +24374,7 @@
         <v>2875</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
@@ -24391,7 +24391,7 @@
         <v>2876</v>
       </c>
       <c r="E866" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
@@ -24408,7 +24408,7 @@
         <v>2877</v>
       </c>
       <c r="E867" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
@@ -24425,7 +24425,7 @@
         <v>2878</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
@@ -24442,7 +24442,7 @@
         <v>2879</v>
       </c>
       <c r="E869" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
@@ -24459,7 +24459,7 @@
         <v>2880</v>
       </c>
       <c r="E870" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
@@ -24476,7 +24476,7 @@
         <v>2881</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
@@ -24493,7 +24493,7 @@
         <v>2882</v>
       </c>
       <c r="E872" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
@@ -24510,7 +24510,7 @@
         <v>2883</v>
       </c>
       <c r="E873" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
@@ -24527,7 +24527,7 @@
         <v>2884</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
@@ -24544,7 +24544,7 @@
         <v>2885</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
@@ -24561,7 +24561,7 @@
         <v>2886</v>
       </c>
       <c r="E876" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
@@ -24578,7 +24578,7 @@
         <v>2887</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
@@ -24595,7 +24595,7 @@
         <v>2888</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
@@ -24612,7 +24612,7 @@
         <v>2889</v>
       </c>
       <c r="E879" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
@@ -24629,7 +24629,7 @@
         <v>2890</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
@@ -24646,7 +24646,7 @@
         <v>2891</v>
       </c>
       <c r="E881" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
@@ -24663,7 +24663,7 @@
         <v>2892</v>
       </c>
       <c r="E882" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
@@ -24680,7 +24680,7 @@
         <v>2886</v>
       </c>
       <c r="E883" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
@@ -24697,7 +24697,7 @@
         <v>2893</v>
       </c>
       <c r="E884" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
@@ -24714,7 +24714,7 @@
         <v>2894</v>
       </c>
       <c r="E885" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
@@ -24731,7 +24731,7 @@
         <v>2895</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
@@ -24748,7 +24748,7 @@
         <v>2896</v>
       </c>
       <c r="E887" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
@@ -24765,7 +24765,7 @@
         <v>2897</v>
       </c>
       <c r="E888" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
@@ -24782,7 +24782,7 @@
         <v>2898</v>
       </c>
       <c r="E889" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
@@ -24799,7 +24799,7 @@
         <v>2899</v>
       </c>
       <c r="E890" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
@@ -24816,7 +24816,7 @@
         <v>2900</v>
       </c>
       <c r="E891" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
@@ -24833,7 +24833,7 @@
         <v>2901</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
@@ -24850,7 +24850,7 @@
         <v>2902</v>
       </c>
       <c r="E893" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
@@ -24867,7 +24867,7 @@
         <v>2903</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
@@ -24884,7 +24884,7 @@
         <v>2904</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
@@ -24901,7 +24901,7 @@
         <v>2905</v>
       </c>
       <c r="E896" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -24918,7 +24918,7 @@
         <v>2906</v>
       </c>
       <c r="E897" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
@@ -24935,7 +24935,7 @@
         <v>2907</v>
       </c>
       <c r="E898" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
@@ -24952,7 +24952,7 @@
         <v>2908</v>
       </c>
       <c r="E899" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
@@ -24969,7 +24969,7 @@
         <v>2909</v>
       </c>
       <c r="E900" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
@@ -24986,7 +24986,7 @@
         <v>2910</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
@@ -25003,7 +25003,7 @@
         <v>2911</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
@@ -25020,7 +25020,7 @@
         <v>2912</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
@@ -25037,7 +25037,7 @@
         <v>2913</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
@@ -25054,7 +25054,7 @@
         <v>2914</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
@@ -25071,7 +25071,7 @@
         <v>2915</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
@@ -25088,7 +25088,7 @@
         <v>2916</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
@@ -25105,7 +25105,7 @@
         <v>2917</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
@@ -25122,7 +25122,7 @@
         <v>2918</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
@@ -25139,7 +25139,7 @@
         <v>2919</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
@@ -25156,7 +25156,7 @@
         <v>2920</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
@@ -25173,7 +25173,7 @@
         <v>2921</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
@@ -25190,7 +25190,7 @@
         <v>2922</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
@@ -25207,7 +25207,7 @@
         <v>2923</v>
       </c>
       <c r="E914" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
@@ -25224,7 +25224,7 @@
         <v>2924</v>
       </c>
       <c r="E915" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
@@ -25241,7 +25241,7 @@
         <v>2925</v>
       </c>
       <c r="E916" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
@@ -25258,7 +25258,7 @@
         <v>2926</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
@@ -25275,7 +25275,7 @@
         <v>2927</v>
       </c>
       <c r="E918" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
@@ -25292,7 +25292,7 @@
         <v>2928</v>
       </c>
       <c r="E919" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
@@ -25309,7 +25309,7 @@
         <v>2929</v>
       </c>
       <c r="E920" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
@@ -25326,7 +25326,7 @@
         <v>2930</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
@@ -25343,7 +25343,7 @@
         <v>2931</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -25360,7 +25360,7 @@
         <v>2932</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
@@ -25377,7 +25377,7 @@
         <v>2933</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
@@ -25394,7 +25394,7 @@
         <v>2934</v>
       </c>
       <c r="E925" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
@@ -25411,7 +25411,7 @@
         <v>2935</v>
       </c>
       <c r="E926" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
@@ -25428,7 +25428,7 @@
         <v>2936</v>
       </c>
       <c r="E927" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
@@ -25445,7 +25445,7 @@
         <v>2937</v>
       </c>
       <c r="E928" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
@@ -25462,7 +25462,7 @@
         <v>2938</v>
       </c>
       <c r="E929" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
@@ -25479,7 +25479,7 @@
         <v>2939</v>
       </c>
       <c r="E930" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
@@ -25496,7 +25496,7 @@
         <v>2940</v>
       </c>
       <c r="E931" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
@@ -25513,7 +25513,7 @@
         <v>2941</v>
       </c>
       <c r="E932" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
@@ -25530,7 +25530,7 @@
         <v>2942</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
@@ -25547,7 +25547,7 @@
         <v>2943</v>
       </c>
       <c r="E934" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
@@ -25564,7 +25564,7 @@
         <v>2944</v>
       </c>
       <c r="E935" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
@@ -25581,7 +25581,7 @@
         <v>2945</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
@@ -25598,7 +25598,7 @@
         <v>2946</v>
       </c>
       <c r="E937" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
@@ -25615,7 +25615,7 @@
         <v>2947</v>
       </c>
       <c r="E938" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
@@ -25632,7 +25632,7 @@
         <v>2948</v>
       </c>
       <c r="E939" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
@@ -25649,7 +25649,7 @@
         <v>2949</v>
       </c>
       <c r="E940" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
@@ -25666,7 +25666,7 @@
         <v>2950</v>
       </c>
       <c r="E941" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
@@ -25683,7 +25683,7 @@
         <v>2951</v>
       </c>
       <c r="E942" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
@@ -25700,7 +25700,7 @@
         <v>2952</v>
       </c>
       <c r="E943" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
@@ -25717,7 +25717,7 @@
         <v>2953</v>
       </c>
       <c r="E944" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
@@ -25734,7 +25734,7 @@
         <v>2954</v>
       </c>
       <c r="E945" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
@@ -25751,7 +25751,7 @@
         <v>2955</v>
       </c>
       <c r="E946" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
@@ -25768,7 +25768,7 @@
         <v>2956</v>
       </c>
       <c r="E947" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
@@ -25785,7 +25785,7 @@
         <v>2957</v>
       </c>
       <c r="E948" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
@@ -25802,7 +25802,7 @@
         <v>2958</v>
       </c>
       <c r="E949" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
@@ -25819,7 +25819,7 @@
         <v>2959</v>
       </c>
       <c r="E950" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
@@ -25836,7 +25836,7 @@
         <v>2960</v>
       </c>
       <c r="E951" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
@@ -25853,7 +25853,7 @@
         <v>2961</v>
       </c>
       <c r="E952" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
@@ -25870,7 +25870,7 @@
         <v>2962</v>
       </c>
       <c r="E953" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
@@ -25887,7 +25887,7 @@
         <v>2963</v>
       </c>
       <c r="E954" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
@@ -25904,7 +25904,7 @@
         <v>2639</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
@@ -25921,7 +25921,7 @@
         <v>2964</v>
       </c>
       <c r="E956" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
@@ -25938,7 +25938,7 @@
         <v>2965</v>
       </c>
       <c r="E957" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
@@ -25955,7 +25955,7 @@
         <v>2966</v>
       </c>
       <c r="E958" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
@@ -25972,7 +25972,7 @@
         <v>2967</v>
       </c>
       <c r="E959" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
@@ -25989,7 +25989,7 @@
         <v>2968</v>
       </c>
       <c r="E960" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
@@ -26006,7 +26006,7 @@
         <v>2720</v>
       </c>
       <c r="E961" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
@@ -26023,7 +26023,7 @@
         <v>2969</v>
       </c>
       <c r="E962" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
@@ -26040,7 +26040,7 @@
         <v>2970</v>
       </c>
       <c r="E963" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
@@ -26057,7 +26057,7 @@
         <v>2971</v>
       </c>
       <c r="E964" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
@@ -26074,7 +26074,7 @@
         <v>2972</v>
       </c>
       <c r="E965" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
@@ -26091,7 +26091,7 @@
         <v>2973</v>
       </c>
       <c r="E966" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
@@ -26108,7 +26108,7 @@
         <v>2974</v>
       </c>
       <c r="E967" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
@@ -26125,7 +26125,7 @@
         <v>2975</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
@@ -26142,7 +26142,7 @@
         <v>2976</v>
       </c>
       <c r="E969" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
@@ -26159,7 +26159,7 @@
         <v>2977</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
@@ -26176,7 +26176,7 @@
         <v>2978</v>
       </c>
       <c r="E971" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
@@ -26193,7 +26193,7 @@
         <v>2979</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
@@ -26210,7 +26210,7 @@
         <v>2980</v>
       </c>
       <c r="E973" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
@@ -26227,7 +26227,7 @@
         <v>2981</v>
       </c>
       <c r="E974" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
@@ -26244,7 +26244,7 @@
         <v>2982</v>
       </c>
       <c r="E975" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
@@ -26261,7 +26261,7 @@
         <v>2983</v>
       </c>
       <c r="E976" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
@@ -26278,7 +26278,7 @@
         <v>2984</v>
       </c>
       <c r="E977" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
@@ -26295,7 +26295,7 @@
         <v>2985</v>
       </c>
       <c r="E978" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
@@ -26312,7 +26312,7 @@
         <v>2986</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
@@ -26329,7 +26329,7 @@
         <v>2987</v>
       </c>
       <c r="E980" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
@@ -26346,7 +26346,7 @@
         <v>2988</v>
       </c>
       <c r="E981" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
@@ -26363,7 +26363,7 @@
         <v>2989</v>
       </c>
       <c r="E982" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
@@ -26380,7 +26380,7 @@
         <v>2990</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
@@ -26397,7 +26397,7 @@
         <v>2991</v>
       </c>
       <c r="E984" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
@@ -26414,7 +26414,7 @@
         <v>2992</v>
       </c>
       <c r="E985" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
@@ -26431,7 +26431,7 @@
         <v>2993</v>
       </c>
       <c r="E986" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
@@ -26448,7 +26448,7 @@
         <v>2994</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
@@ -26465,7 +26465,7 @@
         <v>2995</v>
       </c>
       <c r="E988" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
@@ -26482,7 +26482,7 @@
         <v>2996</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
@@ -26499,7 +26499,7 @@
         <v>2997</v>
       </c>
       <c r="E990" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
@@ -26516,7 +26516,7 @@
         <v>2998</v>
       </c>
       <c r="E991" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
@@ -26533,7 +26533,7 @@
         <v>2999</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
@@ -26550,7 +26550,7 @@
         <v>3000</v>
       </c>
       <c r="E993" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
@@ -26567,7 +26567,7 @@
         <v>3001</v>
       </c>
       <c r="E994" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
@@ -26584,7 +26584,7 @@
         <v>3002</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
@@ -26601,7 +26601,7 @@
         <v>3003</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
@@ -26618,7 +26618,7 @@
         <v>2800</v>
       </c>
       <c r="E997" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
@@ -26635,7 +26635,7 @@
         <v>3004</v>
       </c>
       <c r="E998" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
@@ -26652,7 +26652,7 @@
         <v>3005</v>
       </c>
       <c r="E999" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
@@ -26669,7 +26669,7 @@
         <v>3006</v>
       </c>
       <c r="E1000" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
@@ -26686,7 +26686,7 @@
         <v>3007</v>
       </c>
       <c r="E1001" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
@@ -26703,7 +26703,7 @@
         <v>3008</v>
       </c>
       <c r="E1002" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
@@ -26720,7 +26720,7 @@
         <v>3009</v>
       </c>
       <c r="E1003" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
@@ -26737,7 +26737,7 @@
         <v>3004</v>
       </c>
       <c r="E1004" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
@@ -26754,7 +26754,7 @@
         <v>3010</v>
       </c>
       <c r="E1005" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
@@ -26771,7 +26771,7 @@
         <v>3011</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
@@ -26788,7 +26788,7 @@
         <v>3012</v>
       </c>
       <c r="E1007" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
@@ -26805,7 +26805,7 @@
         <v>3013</v>
       </c>
       <c r="E1008" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
@@ -26822,7 +26822,7 @@
         <v>3014</v>
       </c>
       <c r="E1009" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
@@ -26839,7 +26839,7 @@
         <v>3015</v>
       </c>
       <c r="E1010" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
@@ -26856,7 +26856,7 @@
         <v>3016</v>
       </c>
       <c r="E1011" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
@@ -26873,7 +26873,7 @@
         <v>3017</v>
       </c>
       <c r="E1012" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
@@ -26890,7 +26890,7 @@
         <v>3018</v>
       </c>
       <c r="E1013" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
@@ -26907,7 +26907,7 @@
         <v>3019</v>
       </c>
       <c r="E1014" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
@@ -26924,7 +26924,7 @@
         <v>3020</v>
       </c>
       <c r="E1015" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
@@ -26941,7 +26941,7 @@
         <v>3021</v>
       </c>
       <c r="E1016" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
@@ -26958,7 +26958,7 @@
         <v>3022</v>
       </c>
       <c r="E1017" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
@@ -26975,7 +26975,7 @@
         <v>3023</v>
       </c>
       <c r="E1018" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
@@ -26992,7 +26992,7 @@
         <v>3024</v>
       </c>
       <c r="E1019" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
@@ -27009,7 +27009,7 @@
         <v>3025</v>
       </c>
       <c r="E1020" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
@@ -27026,7 +27026,7 @@
         <v>3026</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
@@ -27043,7 +27043,7 @@
         <v>3027</v>
       </c>
       <c r="E1022" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
@@ -27060,7 +27060,7 @@
         <v>3028</v>
       </c>
       <c r="E1023" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
@@ -27077,7 +27077,7 @@
         <v>3029</v>
       </c>
       <c r="E1024" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
@@ -27094,7 +27094,7 @@
         <v>3030</v>
       </c>
       <c r="E1025" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
@@ -27111,7 +27111,7 @@
         <v>3031</v>
       </c>
       <c r="E1026" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
@@ -27128,7 +27128,7 @@
         <v>3032</v>
       </c>
       <c r="E1027" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
@@ -27145,7 +27145,7 @@
         <v>3033</v>
       </c>
       <c r="E1028" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
@@ -27162,7 +27162,7 @@
         <v>3034</v>
       </c>
       <c r="E1029" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
@@ -27179,7 +27179,7 @@
         <v>3035</v>
       </c>
       <c r="E1030" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
@@ -27196,7 +27196,7 @@
         <v>3036</v>
       </c>
       <c r="E1031" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
@@ -27213,7 +27213,7 @@
         <v>3037</v>
       </c>
       <c r="E1032" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
@@ -27230,7 +27230,7 @@
         <v>3038</v>
       </c>
       <c r="E1033" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
@@ -27247,7 +27247,7 @@
         <v>3039</v>
       </c>
       <c r="E1034" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
@@ -27264,7 +27264,7 @@
         <v>3040</v>
       </c>
       <c r="E1035" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
@@ -27281,7 +27281,7 @@
         <v>3041</v>
       </c>
       <c r="E1036" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
@@ -27298,7 +27298,7 @@
         <v>3042</v>
       </c>
       <c r="E1037" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
@@ -27315,7 +27315,7 @@
         <v>3043</v>
       </c>
       <c r="E1038" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
@@ -27332,7 +27332,7 @@
         <v>3044</v>
       </c>
       <c r="E1039" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
@@ -27349,7 +27349,7 @@
         <v>3045</v>
       </c>
       <c r="E1040" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
@@ -27366,7 +27366,7 @@
         <v>3046</v>
       </c>
       <c r="E1041" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
@@ -27383,7 +27383,7 @@
         <v>3047</v>
       </c>
       <c r="E1042" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
@@ -27400,7 +27400,7 @@
         <v>3048</v>
       </c>
       <c r="E1043" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
@@ -27417,7 +27417,7 @@
         <v>3049</v>
       </c>
       <c r="E1044" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
@@ -27434,7 +27434,7 @@
         <v>3050</v>
       </c>
       <c r="E1045" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
@@ -27451,7 +27451,7 @@
         <v>3051</v>
       </c>
       <c r="E1046" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
@@ -27468,7 +27468,7 @@
         <v>3052</v>
       </c>
       <c r="E1047" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
@@ -27485,7 +27485,7 @@
         <v>3053</v>
       </c>
       <c r="E1048" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
@@ -27502,7 +27502,7 @@
         <v>3054</v>
       </c>
       <c r="E1049" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
@@ -27519,7 +27519,7 @@
         <v>3055</v>
       </c>
       <c r="E1050" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
@@ -27536,7 +27536,7 @@
         <v>3056</v>
       </c>
       <c r="E1051" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
@@ -27553,7 +27553,7 @@
         <v>3057</v>
       </c>
       <c r="E1052" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
@@ -27570,7 +27570,7 @@
         <v>3058</v>
       </c>
       <c r="E1053" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
@@ -27587,7 +27587,7 @@
         <v>3059</v>
       </c>
       <c r="E1054" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
@@ -27604,7 +27604,7 @@
         <v>3005</v>
       </c>
       <c r="E1055" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
@@ -27621,7 +27621,7 @@
         <v>3060</v>
       </c>
       <c r="E1056" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
@@ -27638,7 +27638,7 @@
         <v>3034</v>
       </c>
       <c r="E1057" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
@@ -27655,7 +27655,7 @@
         <v>2672</v>
       </c>
       <c r="E1058" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
@@ -27672,7 +27672,7 @@
         <v>3061</v>
       </c>
       <c r="E1059" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
@@ -27689,7 +27689,7 @@
         <v>3039</v>
       </c>
       <c r="E1060" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
@@ -27706,7 +27706,7 @@
         <v>3012</v>
       </c>
       <c r="E1061" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
@@ -27723,7 +27723,7 @@
         <v>3043</v>
       </c>
       <c r="E1062" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
@@ -27740,7 +27740,7 @@
         <v>3046</v>
       </c>
       <c r="E1063" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
@@ -27757,7 +27757,7 @@
         <v>2890</v>
       </c>
       <c r="E1064" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
@@ -27774,7 +27774,7 @@
         <v>3062</v>
       </c>
       <c r="E1065" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
@@ -27791,7 +27791,7 @@
         <v>3063</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
@@ -27808,7 +27808,7 @@
         <v>3064</v>
       </c>
       <c r="E1067" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
@@ -27825,7 +27825,7 @@
         <v>3007</v>
       </c>
       <c r="E1068" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
@@ -27842,7 +27842,7 @@
         <v>3006</v>
       </c>
       <c r="E1069" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
@@ -27859,7 +27859,7 @@
         <v>3022</v>
       </c>
       <c r="E1070" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
@@ -27876,7 +27876,7 @@
         <v>3065</v>
       </c>
       <c r="E1071" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
@@ -27893,7 +27893,7 @@
         <v>3066</v>
       </c>
       <c r="E1072" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
@@ -27910,7 +27910,7 @@
         <v>3067</v>
       </c>
       <c r="E1073" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
@@ -27927,7 +27927,7 @@
         <v>2800</v>
       </c>
       <c r="E1074" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
@@ -27944,7 +27944,7 @@
         <v>3068</v>
       </c>
       <c r="E1075" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
@@ -27961,7 +27961,7 @@
         <v>3069</v>
       </c>
       <c r="E1076" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
@@ -27978,7 +27978,7 @@
         <v>3004</v>
       </c>
       <c r="E1077" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
@@ -27995,7 +27995,7 @@
         <v>3070</v>
       </c>
       <c r="E1078" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
@@ -28012,7 +28012,7 @@
         <v>3071</v>
       </c>
       <c r="E1079" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
@@ -28029,7 +28029,7 @@
         <v>3072</v>
       </c>
       <c r="E1080" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
@@ -28046,7 +28046,7 @@
         <v>2883</v>
       </c>
       <c r="E1081" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
@@ -28063,7 +28063,7 @@
         <v>3031</v>
       </c>
       <c r="E1082" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
@@ -28080,7 +28080,7 @@
         <v>3073</v>
       </c>
       <c r="E1083" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
@@ -28097,7 +28097,7 @@
         <v>2806</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
@@ -28114,7 +28114,7 @@
         <v>3074</v>
       </c>
       <c r="E1085" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
@@ -28131,7 +28131,7 @@
         <v>2886</v>
       </c>
       <c r="E1086" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
@@ -28148,7 +28148,7 @@
         <v>3075</v>
       </c>
       <c r="E1087" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
@@ -28165,7 +28165,7 @@
         <v>2804</v>
       </c>
       <c r="E1088" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
@@ -28182,7 +28182,7 @@
         <v>2886</v>
       </c>
       <c r="E1089" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
@@ -28199,7 +28199,7 @@
         <v>3076</v>
       </c>
       <c r="E1090" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
@@ -28216,7 +28216,7 @@
         <v>2798</v>
       </c>
       <c r="E1091" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
@@ -28233,7 +28233,7 @@
         <v>3077</v>
       </c>
       <c r="E1092" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
@@ -28250,7 +28250,7 @@
         <v>3078</v>
       </c>
       <c r="E1093" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
@@ -28267,7 +28267,7 @@
         <v>2801</v>
       </c>
       <c r="E1094" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
@@ -28284,7 +28284,7 @@
         <v>3079</v>
       </c>
       <c r="E1095" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
@@ -28301,7 +28301,7 @@
         <v>3042</v>
       </c>
       <c r="E1096" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
@@ -28318,7 +28318,7 @@
         <v>3041</v>
       </c>
       <c r="E1097" s="2" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
@@ -28335,7 +28335,7 @@
         <v>2674</v>
       </c>
       <c r="E1098" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
@@ -28352,7 +28352,7 @@
         <v>2797</v>
       </c>
       <c r="E1099" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
@@ -28369,7 +28369,7 @@
         <v>3080</v>
       </c>
       <c r="E1100" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
@@ -28386,7 +28386,7 @@
         <v>3081</v>
       </c>
       <c r="E1101" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
